--- a/second-order/1879/December1879.xlsx
+++ b/second-order/1879/December1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1879\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15110" documentId="13_ncr:1_{FB003038-1474-463A-A154-106CC6462E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C29D56-C7D0-4DE3-BA49-09AF37201DF2}"/>
+  <xr:revisionPtr revIDLastSave="16202" documentId="13_ncr:1_{FB003038-1474-463A-A154-106CC6462E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BC0081E-F34D-4C1D-9F9F-23AC98F3DD01}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="25" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="22" activeTab="25" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="96">
   <si>
     <t>Barometer</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Southampton</t>
-  </si>
-  <si>
-    <t>5-.5</t>
   </si>
   <si>
     <t>Hastings</t>
@@ -574,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,6 +666,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BBBF1-A4DB-41BA-A184-52AB6B954A47}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="K22" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,34 +1016,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="U20" s="12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
@@ -3167,11 +3165,15 @@
       <c r="N35" s="16">
         <v>85.1</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3.3</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>3.9</v>
       </c>
@@ -3202,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69065F44-B6FE-4052-938F-A53648DF520D}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="T55" sqref="T55"/>
+    <sheetView topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3217,34 +3219,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -5366,11 +5368,15 @@
       <c r="N35" s="16">
         <v>89.2</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.1</v>
       </c>
@@ -5400,11 +5406,11 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED182907-3967-4840-BF65-EDCDC4C0836B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="R4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="E31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -5424,34 +5430,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -7573,11 +7579,15 @@
       <c r="N35" s="16">
         <v>92.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -7590,6 +7600,23 @@
       <c r="U35" s="21">
         <v>0.71</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7609,8 +7636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="N23" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7624,34 +7651,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -7800,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>29.891999999999999</v>
+        <v>29.981999999999999</v>
       </c>
       <c r="F5" s="6">
         <v>29.908000000000001</v>
@@ -8533,7 +8560,7 @@
         <v>43.1</v>
       </c>
       <c r="K16" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L16" s="6">
         <v>0.182</v>
@@ -8793,7 +8820,7 @@
         <v>43.1</v>
       </c>
       <c r="K20" s="1">
-        <v>0.27700000000000002</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="L20" s="6">
         <v>0.122</v>
@@ -9257,7 +9284,7 @@
         <v>85</v>
       </c>
       <c r="N27" s="6">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>26</v>
@@ -9452,7 +9479,7 @@
         <v>89</v>
       </c>
       <c r="N30" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>22</v>
@@ -9709,7 +9736,7 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="M34" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N34" s="9">
         <v>91</v>
@@ -9768,16 +9795,20 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="M35" s="14">
-        <v>85.1</v>
+        <v>84.1</v>
       </c>
       <c r="N35" s="16">
         <v>85.8</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.6</v>
       </c>
@@ -9808,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9823,34 +9854,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -10865,7 +10896,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="L18" s="6">
-        <v>0.20799999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="M18" s="1">
         <v>99</v>
@@ -11887,7 +11918,7 @@
         <v>29.672999999999998</v>
       </c>
       <c r="F34" s="9">
-        <v>30.706</v>
+        <v>29.706</v>
       </c>
       <c r="G34" s="8">
         <v>47.1</v>
@@ -11943,7 +11974,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="15">
-        <v>30.309000000000001</v>
+        <v>30.326000000000001</v>
       </c>
       <c r="F35" s="16">
         <v>30.309000000000001</v>
@@ -11972,11 +12003,15 @@
       <c r="N35" s="16">
         <v>89.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>0.4</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1</v>
       </c>
@@ -12006,11 +12041,11 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC329757-9589-43BA-9830-B0C05F54B799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="3" topLeftCell="L29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -12030,34 +12065,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="37"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -14179,11 +14214,15 @@
       <c r="N35" s="16">
         <v>91.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.8</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.7</v>
       </c>
@@ -14196,6 +14235,23 @@
       <c r="U35" s="21">
         <v>2.65</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14215,8 +14271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D50969-602C-407C-90E2-38F88EF089F3}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14230,34 +14286,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -14474,7 +14530,7 @@
         <v>29.872</v>
       </c>
       <c r="F6" s="6">
-        <v>20.722999999999999</v>
+        <v>29.722999999999999</v>
       </c>
       <c r="G6" s="1">
         <v>18.8</v>
@@ -16359,7 +16415,7 @@
         <v>31</v>
       </c>
       <c r="H35" s="15">
-        <v>52.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="I35" s="15">
         <v>26.4</v>
@@ -16379,11 +16435,15 @@
       <c r="N35" s="16">
         <v>92.8</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>0.7</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.1000000000000001</v>
       </c>
@@ -16413,11 +16473,11 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5B7868-56EE-4A9A-910A-A0CD109A2F92}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane ySplit="3" topLeftCell="D31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -16437,34 +16497,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -18586,11 +18646,15 @@
       <c r="N35" s="16">
         <v>84.9</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.7</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.7</v>
       </c>
@@ -18603,6 +18667,23 @@
       <c r="U35" s="17">
         <v>1.2070000000000001</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18622,8 +18703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A310F85-A627-4FFA-A76E-4BA45485986E}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18637,34 +18718,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -19543,7 +19624,7 @@
         <v>33.1</v>
       </c>
       <c r="J16" s="6">
-        <v>47.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K16" s="1">
         <v>0.214</v>
@@ -20786,11 +20867,15 @@
       <c r="N35" s="16">
         <v>92.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.5</v>
       </c>
@@ -20821,8 +20906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B67C626-385D-4BB4-83E7-BBFACA9022E8}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20836,34 +20921,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -21174,8 +21259,8 @@
       <c r="O7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>82</v>
+      <c r="P7" s="1">
+        <v>5.5</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>28</v>
@@ -22985,11 +23070,15 @@
       <c r="N35" s="16">
         <v>90.2</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.8</v>
       </c>
@@ -23020,8 +23109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198EE2E4-A17F-42E2-BEC0-BDCB486A0EB2}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="O23" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23035,34 +23124,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -23134,7 +23223,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -23199,7 +23288,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -23264,7 +23353,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -23329,7 +23418,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -23380,7 +23469,7 @@
         <v>28</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S7" s="1">
         <v>10</v>
@@ -23394,7 +23483,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -23459,7 +23548,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -23480,7 +23569,7 @@
         <v>27.7</v>
       </c>
       <c r="H9" s="1">
-        <v>325.60000000000002</v>
+        <v>25.6</v>
       </c>
       <c r="I9" s="1">
         <v>25.3</v>
@@ -23524,7 +23613,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -23589,7 +23678,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -23637,7 +23726,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R11" s="6">
         <v>1</v>
@@ -23654,7 +23743,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -23719,7 +23808,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -23784,7 +23873,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -23849,7 +23938,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -23914,7 +24003,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -23979,7 +24068,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -24044,7 +24133,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -24109,7 +24198,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -24174,7 +24263,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -24239,7 +24328,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -24304,7 +24393,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -24369,7 +24458,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -24434,7 +24523,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -24499,7 +24588,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -24564,7 +24653,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -24629,7 +24718,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -24694,7 +24783,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -24759,7 +24848,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -24824,7 +24913,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -24854,7 +24943,7 @@
         <v>36.5</v>
       </c>
       <c r="K30" s="1">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="L30" s="6">
         <v>0.19400000000000001</v>
@@ -24889,7 +24978,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -24954,7 +25043,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -25019,7 +25108,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -25040,7 +25129,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I33" s="1">
         <v>33.6</v>
@@ -25084,7 +25173,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -25184,11 +25273,15 @@
       <c r="N35" s="16">
         <v>86.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.2000000000000002</v>
       </c>
@@ -25219,8 +25312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="N25" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25234,34 +25327,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -25549,7 +25642,7 @@
         <v>12.6</v>
       </c>
       <c r="H7" s="1">
-        <v>23.3</v>
+        <v>29.3</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -27083,7 +27176,7 @@
         <v>10</v>
       </c>
       <c r="U30" s="11">
-        <v>1.0349999999999999</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
@@ -27383,11 +27476,15 @@
       <c r="N35" s="16">
         <v>85.8</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2</v>
       </c>
@@ -27417,11 +27514,11 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43E2027-8566-4F24-BD57-2C2DEF03F051}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="3" topLeftCell="N27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -27441,34 +27538,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -27540,7 +27637,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -27551,8 +27648,12 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5">
+        <v>29.859000000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>29.893999999999998</v>
+      </c>
       <c r="G4" s="1">
         <v>27.2</v>
       </c>
@@ -27601,7 +27702,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -27612,8 +27713,12 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5">
+        <v>29.891999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>29.834</v>
+      </c>
       <c r="G5" s="1">
         <v>25.5</v>
       </c>
@@ -27662,7 +27767,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -27673,8 +27778,12 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5">
+        <v>29.745999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29.516999999999999</v>
+      </c>
       <c r="G6" s="1">
         <v>24.8</v>
       </c>
@@ -27723,7 +27832,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -27734,8 +27843,12 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5">
+        <v>29.393000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>29.533999999999999</v>
+      </c>
       <c r="G7" s="1">
         <v>24</v>
       </c>
@@ -27784,7 +27897,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -27795,8 +27908,12 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="5">
+        <v>29.81</v>
+      </c>
+      <c r="F8" s="6">
+        <v>29.753</v>
+      </c>
       <c r="G8" s="1">
         <v>22.9</v>
       </c>
@@ -27845,7 +27962,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -27856,8 +27973,12 @@
       <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5">
+        <v>29.972000000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>30.285</v>
+      </c>
       <c r="G9" s="1">
         <v>30.5</v>
       </c>
@@ -27906,7 +28027,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -27917,8 +28038,12 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5">
+        <v>30.478000000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>30.507999999999999</v>
+      </c>
       <c r="G10" s="1">
         <v>29.5</v>
       </c>
@@ -27967,7 +28092,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -27978,8 +28103,12 @@
       <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5">
+        <v>30.556000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30.625</v>
+      </c>
       <c r="G11" s="1">
         <v>35</v>
       </c>
@@ -28028,7 +28157,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -28039,8 +28168,12 @@
       <c r="D12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5">
+        <v>30.597000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30.577000000000002</v>
+      </c>
       <c r="G12" s="1">
         <v>31.5</v>
       </c>
@@ -28089,7 +28222,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -28100,10 +28233,14 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5">
+        <v>30.526</v>
+      </c>
+      <c r="F13" s="6">
+        <v>30.538</v>
+      </c>
       <c r="G13" s="1">
-        <v>24.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="H13" s="1">
         <v>34</v>
@@ -28150,7 +28287,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -28161,10 +28298,14 @@
       <c r="D14" s="1">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5">
+        <v>30.565000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>30.704999999999998</v>
+      </c>
       <c r="G14" s="1">
-        <v>34.200000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="H14" s="1">
         <v>27</v>
@@ -28211,7 +28352,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -28222,10 +28363,14 @@
       <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5">
+        <v>30.725000000000001</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30.763999999999999</v>
+      </c>
       <c r="G15" s="1">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="H15" s="1">
         <v>26</v>
@@ -28272,7 +28417,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -28283,10 +28428,14 @@
       <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5">
+        <v>30.771999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <v>30.695</v>
+      </c>
       <c r="G16" s="1">
-        <v>27.5</v>
+        <v>36.5</v>
       </c>
       <c r="H16" s="1">
         <v>33</v>
@@ -28333,7 +28482,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -28344,8 +28493,12 @@
       <c r="D17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5">
+        <v>30.611000000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>30.56</v>
+      </c>
       <c r="G17" s="1">
         <v>36.5</v>
       </c>
@@ -28394,7 +28547,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -28405,10 +28558,14 @@
       <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5">
+        <v>30.533000000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>30.48</v>
+      </c>
       <c r="G18" s="1">
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="H18" s="1">
         <v>39</v>
@@ -28455,7 +28612,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -28466,10 +28623,14 @@
       <c r="D19" s="1">
         <v>16</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>30.533999999999999</v>
+      </c>
       <c r="G19" s="1">
-        <v>38.5</v>
+        <v>32.5</v>
       </c>
       <c r="H19" s="1">
         <v>28</v>
@@ -28516,7 +28677,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -28527,10 +28688,14 @@
       <c r="D20" s="1">
         <v>17</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="5">
+        <v>30.608000000000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30.67</v>
+      </c>
       <c r="G20" s="1">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="H20" s="1">
         <v>31</v>
@@ -28577,7 +28742,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -28588,10 +28753,14 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5">
+        <v>30.606999999999999</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30.594999999999999</v>
+      </c>
       <c r="G21" s="1">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="H21" s="1">
         <v>30.5</v>
@@ -28638,7 +28807,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -28649,8 +28818,12 @@
       <c r="D22" s="1">
         <v>19</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5">
+        <v>30.58</v>
+      </c>
+      <c r="F22" s="6">
+        <v>30.483000000000001</v>
+      </c>
       <c r="G22" s="1">
         <v>32.5</v>
       </c>
@@ -28670,10 +28843,10 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N22" s="6">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>28</v>
@@ -28699,7 +28872,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -28710,13 +28883,17 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5">
+        <v>30.417999999999999</v>
+      </c>
+      <c r="F23" s="6">
+        <v>30.379000000000001</v>
+      </c>
       <c r="G23" s="1">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1">
         <v>28.8</v>
@@ -28731,7 +28908,7 @@
         <v>0.188</v>
       </c>
       <c r="M23" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N23" s="6">
         <v>100</v>
@@ -28760,7 +28937,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -28771,13 +28948,17 @@
       <c r="D24" s="1">
         <v>21</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="5">
+        <v>30.323</v>
+      </c>
+      <c r="F24" s="6">
+        <v>30.29</v>
+      </c>
       <c r="G24" s="1">
-        <v>32</v>
+        <v>35.9</v>
       </c>
       <c r="H24" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1">
         <v>30</v>
@@ -28821,7 +29002,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -28832,13 +29013,17 @@
       <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5">
+        <v>30.532</v>
+      </c>
+      <c r="F25" s="6">
+        <v>30.754000000000001</v>
+      </c>
       <c r="G25" s="1">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1">
         <v>29</v>
@@ -28853,10 +29038,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N25" s="6">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>36</v>
@@ -28882,7 +29067,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -28893,13 +29078,17 @@
       <c r="D26" s="1">
         <v>23</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5">
+        <v>30.783999999999999</v>
+      </c>
+      <c r="F26" s="6">
+        <v>30.574999999999999</v>
+      </c>
       <c r="G26" s="1">
-        <v>36</v>
+        <v>27.9</v>
       </c>
       <c r="H26" s="1">
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1">
         <v>27</v>
@@ -28914,7 +29103,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N26" s="6">
         <v>100</v>
@@ -28943,7 +29132,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -28954,13 +29143,17 @@
       <c r="D27" s="1">
         <v>24</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5">
+        <v>30.463000000000001</v>
+      </c>
+      <c r="F27" s="6">
+        <v>30.512</v>
+      </c>
       <c r="G27" s="1">
-        <v>27.9</v>
+        <v>35.9</v>
       </c>
       <c r="H27" s="1">
-        <v>42.9</v>
+        <v>40</v>
       </c>
       <c r="I27" s="1">
         <v>27</v>
@@ -29004,7 +29197,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -29015,13 +29208,17 @@
       <c r="D28" s="1">
         <v>25</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="5">
+        <v>30.562999999999999</v>
+      </c>
+      <c r="F28" s="6">
+        <v>30.509</v>
+      </c>
       <c r="G28" s="1">
         <v>38.4</v>
       </c>
       <c r="H28" s="1">
-        <v>47.5</v>
+        <v>35</v>
       </c>
       <c r="I28" s="1">
         <v>34</v>
@@ -29065,7 +29262,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -29076,13 +29273,17 @@
       <c r="D29" s="1">
         <v>26</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="5">
+        <v>30.431999999999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>30.427</v>
+      </c>
       <c r="G29" s="1">
         <v>33.200000000000003</v>
       </c>
       <c r="H29" s="1">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="I29" s="1">
         <v>30.5</v>
@@ -29126,7 +29327,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -29137,13 +29338,17 @@
       <c r="D30" s="1">
         <v>27</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="5">
+        <v>30.367999999999999</v>
+      </c>
+      <c r="F30" s="6">
+        <v>30.198</v>
+      </c>
       <c r="G30" s="1">
         <v>39.4</v>
       </c>
       <c r="H30" s="1">
-        <v>35</v>
+        <v>42.9</v>
       </c>
       <c r="I30" s="1">
         <v>28</v>
@@ -29187,7 +29392,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -29198,13 +29403,17 @@
       <c r="D31" s="1">
         <v>28</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="5">
+        <v>30.132000000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>30.053999999999998</v>
+      </c>
       <c r="G31" s="1">
         <v>47.4</v>
       </c>
       <c r="H31" s="1">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="I31" s="1">
         <v>42.9</v>
@@ -29219,7 +29428,7 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="M31" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N31" s="6">
         <v>100</v>
@@ -29248,7 +29457,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -29259,8 +29468,12 @@
       <c r="D32" s="1">
         <v>29</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="5">
+        <v>30.042000000000002</v>
+      </c>
+      <c r="F32" s="6">
+        <v>30.138999999999999</v>
+      </c>
       <c r="G32" s="1">
         <v>43.9</v>
       </c>
@@ -29301,15 +29514,15 @@
         <v>10</v>
       </c>
       <c r="T32" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U32" s="12">
         <v>0.72</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21 16384:16384">
       <c r="A33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -29320,8 +29533,12 @@
       <c r="D33" s="1">
         <v>30</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="F33" s="6">
+        <v>29.978999999999999</v>
+      </c>
       <c r="G33" s="1">
         <v>36</v>
       </c>
@@ -29344,7 +29561,7 @@
         <v>100</v>
       </c>
       <c r="N33" s="6">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>26</v>
@@ -29368,9 +29585,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21 16384:16384">
       <c r="A34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -29381,8 +29598,12 @@
       <c r="D34" s="8">
         <v>31</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="7">
+        <v>29.95</v>
+      </c>
+      <c r="F34" s="9">
+        <v>29.905000000000001</v>
+      </c>
       <c r="G34" s="8">
         <v>39</v>
       </c>
@@ -29429,15 +29650,19 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21 16384:16384">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="15">
+        <v>30.326000000000001</v>
+      </c>
+      <c r="F35" s="16">
+        <v>30.331</v>
+      </c>
       <c r="G35" s="14">
         <v>33.1</v>
       </c>
@@ -29451,7 +29676,7 @@
         <v>37.4</v>
       </c>
       <c r="K35" s="14">
-        <v>0.183</v>
+        <v>0.188</v>
       </c>
       <c r="L35" s="16">
         <v>0.183</v>
@@ -29462,11 +29687,15 @@
       <c r="N35" s="16">
         <v>97.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.8</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.1</v>
       </c>
@@ -29479,6 +29708,24 @@
       <c r="U35" s="21">
         <v>4.16</v>
       </c>
+    </row>
+    <row r="36" spans="1:21 16384:16384">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="XFD36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29498,8 +29745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3289CD-9D97-49EF-92C4-FFFF5740CCC3}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29513,34 +29760,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -29612,7 +29859,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -29677,7 +29924,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -29742,7 +29989,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -29807,7 +30054,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -29843,7 +30090,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N7" s="4">
         <v>58</v>
@@ -29872,7 +30119,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -29937,7 +30184,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -30002,7 +30249,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -30067,7 +30314,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -30082,7 +30329,7 @@
         <v>30.558</v>
       </c>
       <c r="F11" s="6">
-        <v>30.59</v>
+        <v>30.599</v>
       </c>
       <c r="G11" s="1">
         <v>38.5</v>
@@ -30132,7 +30379,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -30197,7 +30444,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -30262,7 +30509,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -30277,7 +30524,7 @@
         <v>30.585999999999999</v>
       </c>
       <c r="F14" s="6">
-        <v>30.050999999999998</v>
+        <v>30.651</v>
       </c>
       <c r="G14" s="1">
         <v>34.1</v>
@@ -30327,7 +30574,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -30392,7 +30639,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -30457,7 +30704,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -30522,7 +30769,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -30587,7 +30834,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -30652,7 +30899,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -30694,7 +30941,7 @@
         <v>88</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -30717,7 +30964,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -30782,7 +31029,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -30847,7 +31094,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -30912,7 +31159,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -30977,7 +31224,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -31042,7 +31289,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -31057,7 +31304,7 @@
         <v>30.779</v>
       </c>
       <c r="F26" s="6">
-        <v>30.361999999999998</v>
+        <v>30.562000000000001</v>
       </c>
       <c r="G26" s="1">
         <v>27.9</v>
@@ -31107,7 +31354,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -31172,7 +31419,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -31237,7 +31484,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -31302,7 +31549,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -31314,7 +31561,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="5">
-        <v>30.3</v>
+        <v>30.39</v>
       </c>
       <c r="F30" s="6">
         <v>30.187999999999999</v>
@@ -31367,7 +31614,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -31432,7 +31679,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -31497,7 +31744,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -31536,7 +31783,7 @@
         <v>95</v>
       </c>
       <c r="N33" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>30</v>
@@ -31562,7 +31809,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -31662,11 +31909,15 @@
       <c r="N35" s="16">
         <v>85.8</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>3</v>
       </c>
@@ -31697,8 +31948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A7F5-7EB0-4803-AE7D-1F1798F594DA}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="Q24" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31712,34 +31963,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -31811,7 +32062,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -31876,7 +32127,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -31941,7 +32192,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -32006,7 +32257,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -32071,7 +32322,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -32136,7 +32387,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -32201,7 +32452,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -32266,7 +32517,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -32290,7 +32541,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>42.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="J11" s="6">
         <v>43.9</v>
@@ -32331,7 +32582,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -32396,7 +32647,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -32461,7 +32712,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -32526,7 +32777,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -32591,7 +32842,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -32656,7 +32907,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -32721,7 +32972,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -32786,7 +33037,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -32851,7 +33102,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -32916,7 +33167,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -32981,7 +33232,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -33046,7 +33297,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -33111,7 +33362,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -33176,7 +33427,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -33241,7 +33492,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -33306,7 +33557,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -33371,7 +33622,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -33436,7 +33687,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -33501,7 +33752,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -33566,7 +33817,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -33602,7 +33853,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="M31" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N31" s="6">
         <v>97</v>
@@ -33631,7 +33882,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -33696,7 +33947,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -33761,7 +34012,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -33861,11 +34112,15 @@
       <c r="N35" s="16">
         <v>81.900000000000006</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.9</v>
       </c>
@@ -33894,11 +34149,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07E7D3-C7C6-4C1F-B024-26DDB1B63117}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="T35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="M27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -33918,34 +34173,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -34017,7 +34272,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -34068,7 +34323,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -34082,7 +34337,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -34112,7 +34367,7 @@
         <v>31.8</v>
       </c>
       <c r="K5" s="1">
-        <v>90</v>
+        <v>0.09</v>
       </c>
       <c r="L5" s="6">
         <v>0.111</v>
@@ -34133,7 +34388,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
         <v>10</v>
@@ -34147,7 +34402,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -34162,7 +34417,7 @@
         <v>29.878</v>
       </c>
       <c r="F6" s="6">
-        <v>29.835999999999999</v>
+        <v>29.856000000000002</v>
       </c>
       <c r="G6" s="1">
         <v>25.7</v>
@@ -34212,7 +34467,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -34263,7 +34518,7 @@
         <v>32</v>
       </c>
       <c r="R7" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1">
         <v>5</v>
@@ -34277,7 +34532,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -34328,7 +34583,7 @@
         <v>21</v>
       </c>
       <c r="R8" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>7</v>
@@ -34342,7 +34597,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -34407,7 +34662,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -34458,7 +34713,7 @@
         <v>25</v>
       </c>
       <c r="R10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
         <v>10</v>
@@ -34472,7 +34727,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -34523,7 +34778,7 @@
         <v>26</v>
       </c>
       <c r="R11" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1">
         <v>3</v>
@@ -34537,7 +34792,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -34552,7 +34807,7 @@
         <v>30.433</v>
       </c>
       <c r="F12" s="6">
-        <v>29.475999999999999</v>
+        <v>30.475999999999999</v>
       </c>
       <c r="G12" s="1">
         <v>34.200000000000003</v>
@@ -34588,7 +34843,7 @@
         <v>29</v>
       </c>
       <c r="R12" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>6</v>
@@ -34602,7 +34857,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -34617,7 +34872,7 @@
         <v>30.521999999999998</v>
       </c>
       <c r="F13" s="6">
-        <v>29.527999999999999</v>
+        <v>30.527999999999999</v>
       </c>
       <c r="G13" s="1">
         <v>30.7</v>
@@ -34667,7 +34922,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -34682,7 +34937,7 @@
         <v>30.538</v>
       </c>
       <c r="F14" s="6">
-        <v>29.591999999999999</v>
+        <v>30.591999999999999</v>
       </c>
       <c r="G14" s="1">
         <v>26</v>
@@ -34718,7 +34973,7 @@
         <v>21</v>
       </c>
       <c r="R14" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -34732,7 +34987,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -34747,7 +35002,7 @@
         <v>30.635999999999999</v>
       </c>
       <c r="F15" s="6">
-        <v>29.652999999999999</v>
+        <v>30.652999999999999</v>
       </c>
       <c r="G15" s="1">
         <v>31.7</v>
@@ -34783,7 +35038,7 @@
         <v>26</v>
       </c>
       <c r="R15" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -34797,7 +35052,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -34812,7 +35067,7 @@
         <v>30.597000000000001</v>
       </c>
       <c r="F16" s="6">
-        <v>29.45</v>
+        <v>30.45</v>
       </c>
       <c r="G16" s="1">
         <v>37.1</v>
@@ -34821,7 +35076,7 @@
         <v>41.8</v>
       </c>
       <c r="I16" s="1">
-        <v>24.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J16" s="6">
         <v>42</v>
@@ -34848,7 +35103,7 @@
         <v>26</v>
       </c>
       <c r="R16" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1">
         <v>6</v>
@@ -34862,7 +35117,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -34877,7 +35132,7 @@
         <v>30.31</v>
       </c>
       <c r="F17" s="6">
-        <v>29.312000000000001</v>
+        <v>30.312000000000001</v>
       </c>
       <c r="G17" s="1">
         <v>44.7</v>
@@ -34913,7 +35168,7 @@
         <v>21</v>
       </c>
       <c r="R17" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>8</v>
@@ -34927,7 +35182,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -34942,7 +35197,7 @@
         <v>30.385999999999999</v>
       </c>
       <c r="F18" s="6">
-        <v>29.372</v>
+        <v>30.372</v>
       </c>
       <c r="G18" s="1">
         <v>41.2</v>
@@ -34978,7 +35233,7 @@
         <v>24</v>
       </c>
       <c r="R18" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
@@ -34992,7 +35247,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -35007,7 +35262,7 @@
         <v>30.286000000000001</v>
       </c>
       <c r="F19" s="6">
-        <v>29.271999999999998</v>
+        <v>30.271999999999998</v>
       </c>
       <c r="G19" s="1">
         <v>43.1</v>
@@ -35043,7 +35298,7 @@
         <v>26</v>
       </c>
       <c r="R19" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S19" s="1">
         <v>10</v>
@@ -35057,7 +35312,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -35072,7 +35327,7 @@
         <v>30.466000000000001</v>
       </c>
       <c r="F20" s="6">
-        <v>29.587</v>
+        <v>30.587</v>
       </c>
       <c r="G20" s="1">
         <v>42.7</v>
@@ -35122,7 +35377,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -35137,7 +35392,7 @@
         <v>30.626999999999999</v>
       </c>
       <c r="F21" s="6">
-        <v>29.602</v>
+        <v>30.602</v>
       </c>
       <c r="G21" s="1">
         <v>31.2</v>
@@ -35179,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U21" s="12" t="s">
         <v>23</v>
@@ -35187,7 +35442,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -35202,7 +35457,7 @@
         <v>30.645</v>
       </c>
       <c r="F22" s="6">
-        <v>29.6</v>
+        <v>30.6</v>
       </c>
       <c r="G22" s="1">
         <v>31.7</v>
@@ -35252,7 +35507,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -35273,7 +35528,7 @@
         <v>32.9</v>
       </c>
       <c r="H23" s="1">
-        <v>27.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I23" s="1">
         <v>25.2</v>
@@ -35303,7 +35558,7 @@
         <v>26</v>
       </c>
       <c r="R23" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
         <v>9</v>
@@ -35317,7 +35572,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -35329,7 +35584,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5">
-        <v>30.488</v>
+        <v>30.088000000000001</v>
       </c>
       <c r="F24" s="6">
         <v>29.928000000000001</v>
@@ -35368,7 +35623,7 @@
         <v>26</v>
       </c>
       <c r="R24" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S24" s="1">
         <v>8</v>
@@ -35382,7 +35637,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -35394,7 +35649,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="5">
-        <v>30.352</v>
+        <v>30.332000000000001</v>
       </c>
       <c r="F25" s="6">
         <v>30.373000000000001</v>
@@ -35433,7 +35688,7 @@
         <v>26</v>
       </c>
       <c r="R25" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S25" s="1">
         <v>4</v>
@@ -35447,7 +35702,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -35498,7 +35753,7 @@
         <v>26</v>
       </c>
       <c r="R26" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S26" s="1">
         <v>6</v>
@@ -35512,7 +35767,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -35527,7 +35782,7 @@
         <v>30.175000000000001</v>
       </c>
       <c r="F27" s="6">
-        <v>30.385000000000002</v>
+        <v>30.364999999999998</v>
       </c>
       <c r="G27" s="1">
         <v>38.5</v>
@@ -35563,7 +35818,7 @@
         <v>29</v>
       </c>
       <c r="R27" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1">
         <v>7</v>
@@ -35577,7 +35832,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -35628,7 +35883,7 @@
         <v>32</v>
       </c>
       <c r="R28" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1">
         <v>6</v>
@@ -35642,7 +35897,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -35657,7 +35912,7 @@
         <v>30.193999999999999</v>
       </c>
       <c r="F29" s="6">
-        <v>30.06</v>
+        <v>30.08</v>
       </c>
       <c r="G29" s="1">
         <v>41</v>
@@ -35707,7 +35962,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -35758,7 +36013,7 @@
         <v>26</v>
       </c>
       <c r="R30" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S30" s="1">
         <v>10</v>
@@ -35772,7 +36027,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -35823,7 +36078,7 @@
         <v>29</v>
       </c>
       <c r="R31" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S31" s="1">
         <v>10</v>
@@ -35837,7 +36092,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -35888,7 +36143,7 @@
         <v>29</v>
       </c>
       <c r="R32" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S32" s="1">
         <v>6</v>
@@ -35902,7 +36157,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -35953,7 +36208,7 @@
         <v>38</v>
       </c>
       <c r="R33" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S33" s="1">
         <v>10</v>
@@ -35967,7 +36222,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -36018,7 +36273,7 @@
         <v>26</v>
       </c>
       <c r="R34" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S34" s="8">
         <v>10</v>
@@ -36067,11 +36322,15 @@
       <c r="N35" s="16">
         <v>88.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.6</v>
       </c>
@@ -36084,6 +36343,23 @@
       <c r="U35" s="21">
         <v>2.34</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -36102,11 +36378,11 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BEAC26-C5B0-45DF-8883-8A32E1429DC5}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="3" topLeftCell="O26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -36126,34 +36402,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -36225,7 +36501,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -36290,7 +36566,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -36355,7 +36631,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -36420,7 +36696,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -36485,7 +36761,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -36550,7 +36826,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -36615,7 +36891,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -36680,7 +36956,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -36745,7 +37021,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -36810,7 +37086,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -36875,7 +37151,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -36940,7 +37216,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -37005,7 +37281,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -37070,7 +37346,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -37135,7 +37411,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -37200,7 +37476,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -37265,7 +37541,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -37330,7 +37606,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -37395,7 +37671,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -37460,7 +37736,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -37525,7 +37801,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -37590,7 +37866,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -37655,7 +37931,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -37720,7 +37996,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -37785,7 +38061,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -37850,7 +38126,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -37915,7 +38191,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -37980,7 +38256,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -38040,12 +38316,12 @@
         <v>8</v>
       </c>
       <c r="U31" s="12">
-        <v>0.32300000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -38110,7 +38386,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -38175,7 +38451,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -38275,11 +38551,15 @@
       <c r="N35" s="16">
         <v>90.4</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.5</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.8</v>
       </c>
@@ -38292,6 +38572,29 @@
       <c r="U35" s="17">
         <v>2.0369999999999999</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="G39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -38311,8 +38614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B72303-BE3D-4EF5-B3F3-F954C1028531}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="L28" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38325,34 +38628,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -38424,7 +38727,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -38489,7 +38792,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -38549,12 +38852,12 @@
         <v>10</v>
       </c>
       <c r="U5" s="12">
-        <v>5.8000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -38619,7 +38922,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -38645,7 +38948,9 @@
       <c r="I7" s="1">
         <v>23.1</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>35.6</v>
+      </c>
       <c r="K7" s="1">
         <v>0.11899999999999999</v>
       </c>
@@ -38682,7 +38987,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -38747,7 +39052,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -38812,7 +39117,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -38860,7 +39165,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R10" s="6">
         <v>0</v>
@@ -38877,7 +39182,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -38942,7 +39247,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -39007,7 +39312,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -39072,7 +39377,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -39137,7 +39442,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -39202,7 +39507,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -39267,7 +39572,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -39332,7 +39637,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -39380,7 +39685,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R18" s="6">
         <v>0</v>
@@ -39397,7 +39702,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -39462,7 +39767,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -39527,7 +39832,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -39592,7 +39897,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -39657,7 +39962,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -39699,7 +40004,7 @@
         <v>91</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P23" s="1">
         <v>2</v>
@@ -39722,7 +40027,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -39787,7 +40092,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -39852,7 +40157,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -39917,7 +40222,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -39982,7 +40287,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -40047,7 +40352,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -40112,7 +40417,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -40177,7 +40482,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -40242,7 +40547,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -40307,7 +40612,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -40372,7 +40677,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -40449,7 +40754,7 @@
         <v>30.231999999999999</v>
       </c>
       <c r="G35" s="14">
-        <v>37.200000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="H35" s="15">
         <v>38.5</v>
@@ -40472,11 +40777,15 @@
       <c r="N35" s="16">
         <v>86.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.6</v>
       </c>
@@ -40506,11 +40815,11 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D2AE6-BEC7-4F51-B744-4A0ACE3E49DE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="P25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <pane ySplit="3" topLeftCell="O26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -40530,34 +40839,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -40629,7 +40938,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -40656,7 +40965,7 @@
         <v>20.9</v>
       </c>
       <c r="J4" s="6">
-        <v>3.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="K4" s="1">
         <v>0.13</v>
@@ -40694,7 +41003,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -40759,7 +41068,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -40824,7 +41133,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -40889,7 +41198,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -40916,7 +41225,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="J8" s="6">
-        <v>38.200000000000003</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="K8" s="1">
         <v>0.14000000000000001</v>
@@ -40954,7 +41263,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -41019,7 +41328,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -41084,7 +41393,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -41149,7 +41458,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -41214,7 +41523,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -41279,7 +41588,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -41344,7 +41653,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -41386,7 +41695,7 @@
         <v>88</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P15" s="1">
         <v>0.5</v>
@@ -41409,7 +41718,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -41474,7 +41783,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -41539,7 +41848,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -41604,7 +41913,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -41669,7 +41978,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -41734,7 +42043,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -41799,7 +42108,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -41864,7 +42173,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -41897,7 +42206,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="L23" s="6">
-        <v>0.20200000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="M23" s="1">
         <v>97</v>
@@ -41929,7 +42238,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -41994,7 +42303,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -42059,7 +42368,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -42124,7 +42433,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -42189,7 +42498,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -42254,7 +42563,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -42319,7 +42628,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -42352,7 +42661,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="L30" s="6">
-        <v>0.28699999999999998</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="M30" s="1">
         <v>76</v>
@@ -42384,7 +42693,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -42449,7 +42758,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -42514,7 +42823,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -42579,7 +42888,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -42679,11 +42988,15 @@
       <c r="N35" s="16">
         <v>89</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.8</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.4</v>
       </c>
@@ -42696,6 +43009,23 @@
       <c r="U35" s="17">
         <v>1.859</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -42713,11 +43043,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8734427-F71D-4CFF-96DD-F8B2048B7965}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <pane ySplit="3" topLeftCell="I27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -42737,34 +43067,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -44219,7 +44549,7 @@
         <v>30.530999999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>30.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H25" s="1">
         <v>42.8</v>
@@ -44869,7 +45199,7 @@
         <v>31.9</v>
       </c>
       <c r="I35" s="15">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="J35" s="16">
         <v>39.700000000000003</v>
@@ -44886,13 +45216,17 @@
       <c r="N35" s="16">
         <v>88.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="S35" s="14">
         <v>6.8</v>
@@ -44903,6 +45237,23 @@
       <c r="U35" s="17">
         <v>0.60299999999999998</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -44921,11 +45272,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="O24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X32" sqref="X32"/>
+      <pane ySplit="3" topLeftCell="K27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -44945,34 +45296,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -45319,7 +45670,7 @@
         <v>29.576000000000001</v>
       </c>
       <c r="F8" s="6">
-        <v>29.033999999999999</v>
+        <v>29.634</v>
       </c>
       <c r="G8" s="1">
         <v>36.299999999999997</v>
@@ -45771,7 +46122,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="5">
-        <v>30.681000000000001</v>
+        <v>30.652999999999999</v>
       </c>
       <c r="F15" s="6">
         <v>30.713000000000001</v>
@@ -45836,7 +46187,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5">
-        <v>30.405000000000001</v>
+        <v>30.681000000000001</v>
       </c>
       <c r="F16" s="6">
         <v>30.539000000000001</v>
@@ -45901,7 +46252,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5">
-        <v>30.417999999999999</v>
+        <v>30.405000000000001</v>
       </c>
       <c r="F17" s="6">
         <v>30.379000000000001</v>
@@ -45966,7 +46317,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>30.38</v>
+        <v>30.417999999999999</v>
       </c>
       <c r="F18" s="6">
         <v>30.44</v>
@@ -46031,7 +46382,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5">
-        <v>30.526</v>
+        <v>30.38</v>
       </c>
       <c r="F19" s="6">
         <v>30.391999999999999</v>
@@ -47094,11 +47445,15 @@
       <c r="N35" s="16">
         <v>90.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.5</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.7</v>
       </c>
@@ -47111,6 +47466,23 @@
       <c r="U35" s="17">
         <v>2.407</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -47131,8 +47503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="J30" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47146,34 +47518,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -49295,11 +49667,15 @@
       <c r="N35" s="16">
         <v>94.1</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.7</v>
       </c>
@@ -49329,11 +49705,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD3842-9C61-4617-AE21-5E6E6D85A650}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <pane ySplit="3" topLeftCell="I32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -49353,34 +49729,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -51502,11 +51878,15 @@
       <c r="N35" s="16">
         <v>92.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.4</v>
       </c>
@@ -51519,6 +51899,23 @@
       <c r="U35" s="17">
         <v>1.0549999999999999</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -51536,11 +51933,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3C7290-F441-421E-ACDE-BDA0F2227C67}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <pane ySplit="3" topLeftCell="H31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -51560,34 +51957,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -53709,11 +54106,15 @@
       <c r="N35" s="16">
         <v>81.599999999999994</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.9</v>
       </c>
@@ -53726,6 +54127,23 @@
       <c r="U35" s="17">
         <v>1.4750000000000001</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -53744,11 +54162,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD2F424-5C0C-452B-9901-DCB60439C948}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="I31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -53768,34 +54186,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -55917,11 +56335,15 @@
       <c r="N35" s="16">
         <v>94.2</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2</v>
       </c>
@@ -55934,6 +56356,23 @@
       <c r="U35" s="21">
         <v>3.94</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -55951,10 +56390,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDBAB1-DE1F-4A3C-9BCF-CF6F687CA5A3}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55968,34 +56407,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -56351,7 +56790,7 @@
         <v>26.5</v>
       </c>
       <c r="I8" s="1">
-        <v>18.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J8" s="6">
         <v>28.2</v>
@@ -56664,7 +57103,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>30.478999999999999</v>
+        <v>30.459</v>
       </c>
       <c r="F13" s="6">
         <v>30.545999999999999</v>
@@ -58029,7 +58468,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="7">
-        <v>30.623000000000001</v>
+        <v>29.623000000000001</v>
       </c>
       <c r="F34" s="9">
         <v>29.599</v>
@@ -58087,7 +58526,9 @@
       <c r="D35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15">
+        <v>30.300999999999998</v>
+      </c>
       <c r="F35" s="16">
         <v>30.289000000000001</v>
       </c>
@@ -58115,11 +58556,15 @@
       <c r="N35" s="16">
         <v>90.9</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.3</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.6</v>
       </c>
@@ -58132,6 +58577,9 @@
       <c r="U35" s="17">
         <v>0.627</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="U36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -58147,8 +58595,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35913</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35913</Url>
+      <Description>H7Q62YT2XCZT-908671883-35913</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -58180,6 +58648,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -58278,6 +58747,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -58447,27 +58921,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35913</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35913</Url>
-      <Description>H7Q62YT2XCZT-908671883-35913</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -58517,27 +58980,18 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72CBE75E-1809-4B80-81A0-7B87499CDF90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B757125A-7346-44C7-9D03-75BA9D21382F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFA0793-8C2F-4E4A-8376-04945A0F9B95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFA0793-8C2F-4E4A-8376-04945A0F9B95}"/>
 </file>